--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e56d78b1a2d848a1/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edward\Documents\GitHub\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86361591-A9E0-49C7-99DC-8F63EA0F600B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48334592-E5EF-46A6-94C2-6984E64D205C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D0E49E6B-9968-45EC-B9F9-B639843726FE}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>DATA0</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>DATA7</t>
+  </si>
+  <si>
+    <t>DATA8</t>
   </si>
 </sst>
 </file>
@@ -408,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7B3075-BD00-4C89-8C10-774F6BBF40C6}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,6 +447,11 @@
         <v>7</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
